--- a/wikipedia_validation_sheets/Influenza DISNET VALIDATION.xlsx
+++ b/wikipedia_validation_sheets/Influenza DISNET VALIDATION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/GITLAB/wikipedia_validation_sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/paperdisnet/wikipedia_validation_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{144646AF-5354-FE42-A6BF-B517F677B601}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B8A555-0B0F-DE45-B519-70283E71DC86}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38640" yWindow="460" windowWidth="15520" windowHeight="21040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VALIDATION!$A$3:$I$3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -75,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="104">
   <si>
     <t>Influenza</t>
   </si>
@@ -363,6 +371,30 @@
   </si>
   <si>
     <t>FPREAL</t>
+  </si>
+  <si>
+    <t>infections</t>
+  </si>
+  <si>
+    <t>Infection</t>
+  </si>
+  <si>
+    <t>[patf]</t>
+  </si>
+  <si>
+    <t>absence</t>
+  </si>
+  <si>
+    <t>Absence (morphologic abnormality)</t>
+  </si>
+  <si>
+    <t>[anab]</t>
+  </si>
+  <si>
+    <t>sensitivity, sensitive</t>
+  </si>
+  <si>
+    <t>Hypersensitivity</t>
   </si>
 </sst>
 </file>
@@ -466,7 +498,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -640,36 +672,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -781,8 +783,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -807,24 +812,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -855,11 +857,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1197,13 +1197,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2092AB-B296-0145-8E0F-6E91F7B3F1D9}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" customWidth="1"/>
@@ -1216,34 +1216,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="50"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="29" t="s">
@@ -1304,28 +1304,28 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="3" t="b">
+      <c r="E5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="F5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1333,28 +1333,28 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="3" t="b">
+      <c r="E6" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" s="7" t="s">
+      <c r="F6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1365,25 +1365,25 @@
       <c r="B7" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="3" t="b">
+      <c r="E7" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I7" s="7" t="s">
+      <c r="F7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1391,28 +1391,28 @@
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="3" t="b">
+      <c r="E8" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I8" s="7" t="s">
+      <c r="F8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1423,25 +1423,25 @@
       <c r="B9" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3" t="b">
+      <c r="E9" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I9" s="7" t="s">
+      <c r="F9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1449,28 +1449,28 @@
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="b">
+      <c r="E10" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I10" s="7" t="s">
+      <c r="F10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1478,28 +1478,28 @@
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="3" t="b">
+      <c r="E11" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I11" s="7" t="s">
+      <c r="F11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1507,28 +1507,28 @@
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3" t="b">
+      <c r="E12" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" s="7" t="s">
+      <c r="F12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1536,28 +1536,28 @@
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="3" t="b">
+      <c r="E13" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I13" s="7" t="s">
+      <c r="F13" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1565,28 +1565,28 @@
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3" t="b">
+      <c r="E14" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14" s="7" t="s">
+      <c r="F14" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1594,28 +1594,28 @@
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="3" t="b">
+      <c r="E15" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I15" s="7" t="s">
+      <c r="F15" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1623,28 +1623,28 @@
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="3" t="b">
+      <c r="E16" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16" s="7" t="s">
+      <c r="F16" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="8" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1655,25 +1655,25 @@
       <c r="B17" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="3" t="b">
+      <c r="E17" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I17" s="7" t="s">
+      <c r="F17" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1681,28 +1681,28 @@
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3" t="b">
+      <c r="E18" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I18" s="7" t="s">
+      <c r="F18" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1710,28 +1710,28 @@
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="3" t="b">
+      <c r="E19" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I19" s="7" t="s">
+      <c r="F19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1739,28 +1739,28 @@
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3" t="b">
+      <c r="E20" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" s="7" t="s">
+      <c r="F20" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="8" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1768,28 +1768,28 @@
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="3" t="b">
+      <c r="E21" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I21" s="7" t="s">
+      <c r="F21" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1797,28 +1797,28 @@
       <c r="A22">
         <v>19</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="3" t="b">
+      <c r="E22" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I22" s="7" t="s">
+      <c r="F22" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" s="8" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1826,28 +1826,28 @@
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="3" t="b">
+      <c r="E23" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I23" s="7" t="s">
+      <c r="F23" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1855,28 +1855,28 @@
       <c r="A24">
         <v>21</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="3" t="b">
+      <c r="E24" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I24" s="7" t="s">
+      <c r="F24" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1884,28 +1884,28 @@
       <c r="A25">
         <v>22</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="3" t="b">
+      <c r="E25" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I25" s="7" t="s">
+      <c r="F25" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1913,28 +1913,28 @@
       <c r="A26">
         <v>23</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="3" t="b">
+      <c r="E26" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I26" s="7" t="s">
+      <c r="F26" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1942,28 +1942,28 @@
       <c r="A27">
         <v>24</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="3" t="b">
+      <c r="E27" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I27" s="7" t="s">
+      <c r="F27" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1980,19 +1980,19 @@
       <c r="D28" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="3" t="b">
+      <c r="E28" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I28" s="13" t="s">
+      <c r="F28" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28" s="14" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2000,28 +2000,28 @@
       <c r="A29">
         <v>26</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="3" t="b">
+      <c r="E29" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I29" s="7" t="s">
+      <c r="F29" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2029,28 +2029,28 @@
       <c r="A30">
         <v>27</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="3" t="b">
+      <c r="E30" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I30" s="7" t="s">
+      <c r="F30" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2058,28 +2058,28 @@
       <c r="A31">
         <v>28</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="3" t="b">
+      <c r="E31" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I31" s="7" t="s">
+      <c r="F31" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31" s="8" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2087,28 +2087,28 @@
       <c r="A32">
         <v>29</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="3" t="b">
+      <c r="E32" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I32" s="13" t="s">
+      <c r="F32" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32" s="14" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2119,25 +2119,25 @@
       <c r="B33" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="3" t="b">
+      <c r="E33" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I33" s="7" t="s">
+      <c r="F33" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33" s="8" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2145,28 +2145,28 @@
       <c r="A34">
         <v>31</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="3" t="b">
+      <c r="E34" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I34" s="13" t="s">
+      <c r="F34" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I34" s="14" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2174,28 +2174,28 @@
       <c r="A35">
         <v>32</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="3" t="b">
+      <c r="E35" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I35" s="7" t="s">
+      <c r="F35" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I35" s="8" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2203,28 +2203,28 @@
       <c r="A36">
         <v>33</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="3" t="b">
+      <c r="E36" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I36" s="7" t="s">
+      <c r="F36" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2232,28 +2232,28 @@
       <c r="A37">
         <v>34</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="3" t="b">
+      <c r="E37" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I37" s="7" t="s">
+      <c r="F37" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I37" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2261,28 +2261,28 @@
       <c r="A38">
         <v>35</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E38" s="3" t="b">
+      <c r="E38" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I38" s="7" t="s">
+      <c r="F38" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I38" s="8" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2290,28 +2290,28 @@
       <c r="A39">
         <v>36</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="3" t="b">
+      <c r="E39" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I39" s="7" t="s">
+      <c r="F39" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I39" s="8" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2319,28 +2319,28 @@
       <c r="A40">
         <v>37</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="3" t="b">
+      <c r="E40" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I40" s="7" t="s">
+      <c r="F40" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I40" s="8" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2348,28 +2348,28 @@
       <c r="A41">
         <v>38</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="3" t="b">
+      <c r="E41" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I41" s="7" t="s">
+      <c r="F41" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I41" s="8" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2377,28 +2377,28 @@
       <c r="A42">
         <v>39</v>
       </c>
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="3" t="b">
+      <c r="E42" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I42" s="7" t="s">
+      <c r="F42" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I42" s="8" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2406,28 +2406,28 @@
       <c r="A43">
         <v>40</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="3" t="b">
+      <c r="E43" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I43" s="7" t="s">
+      <c r="F43" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I43" s="8" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2435,28 +2435,28 @@
       <c r="A44">
         <v>41</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E44" s="3" t="b">
+      <c r="E44" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I44" s="7" t="s">
+      <c r="F44" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I44" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2464,28 +2464,28 @@
       <c r="A45">
         <v>42</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="3" t="b">
+      <c r="E45" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I45" s="7" t="s">
+      <c r="F45" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I45" s="8" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2502,100 +2502,205 @@
       <c r="D46" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E46" s="3" t="b">
+      <c r="E46" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F46" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>44</v>
       </c>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="41" t="s">
+      <c r="C47" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="43" t="s">
+      <c r="D47" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="15" t="b">
+      <c r="E47" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I47" s="13" t="s">
+      <c r="F47" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I47" s="8" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="20"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B49" s="21" t="s">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B51" s="16"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="20"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B52" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I49" s="12" t="s">
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I52" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B50" s="21" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B53" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I50" s="12" t="s">
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I53" s="13" t="s">
         <v>1</v>
       </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:I3" xr:uid="{7605D21B-5ED5-1E44-9FEB-0D83E5659C2D}">
